--- a/docs/calculator.xlsx
+++ b/docs/calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18147BB7-5273-42FD-91CB-733B2ADD2876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75CED67-CEEA-43A0-BFC4-B2F6298EA940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28935" windowHeight="18630" xr2:uid="{547736C4-FE29-4B84-ACB3-33A0F5A2B13F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="18630" xr2:uid="{547736C4-FE29-4B84-ACB3-33A0F5A2B13F}"/>
   </bookViews>
   <sheets>
     <sheet name="PICレジスタ設定" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
   <si>
     <t>F_OSC</t>
     <phoneticPr fontId="1"/>
@@ -477,6 +477,40 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>純正律</t>
+    <rPh sb="0" eb="3">
+      <t>ジュンセイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>純正律の振動比</t>
+    <rPh sb="0" eb="3">
+      <t>ジュンセイリツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分子</t>
+    <rPh sb="0" eb="2">
+      <t>ブンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分母</t>
+    <rPh sb="0" eb="2">
+      <t>ブンボ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -919,32 +953,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -959,9 +967,18 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="medium">
         <color auto="1"/>
-      </right>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -970,10 +987,19 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top style="medium">
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -987,7 +1013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1078,28 +1104,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4996,7 +5037,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="5">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="18" t="s">
@@ -5084,7 +5125,7 @@
       </c>
       <c r="D16" s="3">
         <f>$D$8/(4*($D$6+1))*100</f>
-        <v>50</v>
+        <v>0.29296875</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>19</v>
@@ -5099,7 +5140,7 @@
       </c>
       <c r="D17" s="5">
         <f>$D$8*$D$12*$D$7</f>
-        <v>1.0666666666666667E-5</v>
+        <v>6.250000000000001E-8</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>10</v>
@@ -5116,7 +5157,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5203D5-DD30-4B71-A6CD-F6394EE806D4}">
-  <dimension ref="B2:J20"/>
+  <dimension ref="B2:N20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -5131,9 +5172,11 @@
     <col min="7" max="8" width="5.375" customWidth="1"/>
     <col min="9" max="9" width="16.875" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="21" t="s">
         <v>30</v>
       </c>
@@ -5142,20 +5185,32 @@
       <c r="I2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M2" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K3" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
@@ -5166,18 +5221,28 @@
       <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="31">
         <v>0</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="31">
         <f t="shared" ref="J4:J19" si="0">_xlfn.XLOOKUP($D$6,$C$10:$C$18,$D$10:$D$18)*(POWER(2, H4/12))</f>
         <v>880</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K4" s="36">
+        <f>_xlfn.XLOOKUP($D$6,$C$10:$C$18,$D$10:$D$18)*6/5*$M4/$N4</f>
+        <v>880</v>
+      </c>
+      <c r="M4" s="7">
+        <v>5</v>
+      </c>
+      <c r="N4" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C5" s="25" t="s">
         <v>31</v>
       </c>
@@ -5193,15 +5258,25 @@
       <c r="H5" s="24">
         <v>1</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="24">
         <f t="shared" si="0"/>
         <v>932.32752303617985</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K5" s="36">
+        <f t="shared" ref="K5:K19" si="1">_xlfn.XLOOKUP($D$6,$C$10:$C$18,$D$10:$D$18)*6/5*$M5/$N5</f>
+        <v>938.66666666666663</v>
+      </c>
+      <c r="M5" s="3">
+        <v>8</v>
+      </c>
+      <c r="N5" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C6" s="14" t="s">
         <v>33</v>
       </c>
@@ -5213,42 +5288,72 @@
       <c r="H6" s="24">
         <v>2</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="24">
         <f t="shared" si="0"/>
         <v>987.76660251224826</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="36">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="M6" s="3">
+        <v>15</v>
+      </c>
+      <c r="N6" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
       <c r="H7" s="24">
         <v>3</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="24">
         <f t="shared" si="0"/>
         <v>1046.5022612023945</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K7" s="36">
+        <f t="shared" si="1"/>
+        <v>1056</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
         <v>68</v>
       </c>
       <c r="H8" s="24">
         <v>4</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="24">
         <f t="shared" si="0"/>
         <v>1108.7305239074883</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K8" s="36">
+        <f t="shared" si="1"/>
+        <v>1126.4000000000001</v>
+      </c>
+      <c r="M8" s="3">
+        <v>16</v>
+      </c>
+      <c r="N8" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -5264,15 +5369,25 @@
       <c r="H9" s="24">
         <v>5</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="24">
         <f t="shared" si="0"/>
         <v>1174.6590716696303</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K9" s="36">
+        <f t="shared" si="1"/>
+        <v>1188</v>
+      </c>
+      <c r="M9" s="3">
+        <v>9</v>
+      </c>
+      <c r="N9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -5289,20 +5404,30 @@
       <c r="H10" s="24">
         <v>6</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="24">
         <f t="shared" si="0"/>
         <v>1244.5079348883237</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K10" s="36">
+        <f t="shared" si="1"/>
+        <v>1267.2</v>
+      </c>
+      <c r="M10" s="3">
+        <v>6</v>
+      </c>
+      <c r="N10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C11" s="13">
         <v>1</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" ref="D11:D18" si="1">POWER(2, $C11-4)*$D$5</f>
+        <f t="shared" ref="D11:D18" si="2">POWER(2, $C11-4)*$D$5</f>
         <v>55</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -5312,20 +5437,30 @@
       <c r="H11" s="24">
         <v>7</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="24">
         <f t="shared" si="0"/>
         <v>1318.5102276514797</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K11" s="36">
+        <f t="shared" si="1"/>
+        <v>1320</v>
+      </c>
+      <c r="M11" s="3">
+        <v>5</v>
+      </c>
+      <c r="N11" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C12" s="13">
         <v>2</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -5335,20 +5470,30 @@
       <c r="H12" s="24">
         <v>8</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="24">
         <f t="shared" si="0"/>
         <v>1396.9129257320155</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K12" s="36">
+        <f t="shared" si="1"/>
+        <v>1408</v>
+      </c>
+      <c r="M12" s="3">
+        <v>4</v>
+      </c>
+      <c r="N12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C13" s="13">
         <v>3</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -5358,20 +5503,30 @@
       <c r="H13" s="24">
         <v>9</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="24">
         <f t="shared" si="0"/>
         <v>1479.9776908465376</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K13" s="36">
+        <f t="shared" si="1"/>
+        <v>1478.4</v>
+      </c>
+      <c r="M13" s="3">
+        <v>7</v>
+      </c>
+      <c r="N13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C14" s="13">
         <v>4</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>440</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -5381,20 +5536,30 @@
       <c r="H14" s="24">
         <v>10</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="24">
         <f t="shared" si="0"/>
         <v>1567.9817439269971</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K14" s="36">
+        <f t="shared" si="1"/>
+        <v>1584</v>
+      </c>
+      <c r="M14" s="3">
+        <v>3</v>
+      </c>
+      <c r="N14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C15" s="13">
         <v>5</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>880</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -5404,20 +5569,30 @@
       <c r="H15" s="24">
         <v>11</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="24">
         <f t="shared" si="0"/>
         <v>1661.2187903197805</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K15" s="36">
+        <f t="shared" si="1"/>
+        <v>1689.6</v>
+      </c>
+      <c r="M15" s="3">
+        <v>8</v>
+      </c>
+      <c r="N15" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C16" s="13">
         <v>6</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1760</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -5427,20 +5602,30 @@
       <c r="H16" s="24">
         <v>12</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="24">
         <f t="shared" si="0"/>
         <v>1760</v>
       </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="K16" s="36">
+        <f t="shared" si="1"/>
+        <v>1760</v>
+      </c>
+      <c r="M16" s="3">
+        <v>5</v>
+      </c>
+      <c r="N16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C17" s="13">
         <v>7</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3520</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -5450,20 +5635,30 @@
       <c r="H17" s="24">
         <v>13</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="24">
         <f t="shared" si="0"/>
         <v>1864.6550460723593</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K17" s="36">
+        <f t="shared" si="1"/>
+        <v>1877.3333333333333</v>
+      </c>
+      <c r="M17" s="3">
+        <v>16</v>
+      </c>
+      <c r="N17" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C18" s="14">
         <v>8</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7040</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -5475,27 +5670,47 @@
       <c r="H18" s="24">
         <v>14</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="24">
         <f t="shared" si="0"/>
         <v>1975.5332050244965</v>
       </c>
-    </row>
-    <row r="19" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H19" s="32">
+      <c r="K18" s="36">
+        <f t="shared" si="1"/>
+        <v>1980</v>
+      </c>
+      <c r="M18" s="3">
         <v>15</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="N18" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H19" s="30">
+        <v>15</v>
+      </c>
+      <c r="I19" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="30">
         <f t="shared" si="0"/>
         <v>2093.004522404789</v>
       </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="K19" s="42">
+        <f t="shared" si="1"/>
+        <v>2112</v>
+      </c>
+      <c r="M19" s="5">
+        <v>2</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.4">
       <c r="H20" t="s">
         <v>67</v>
       </c>
@@ -5510,7 +5725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09761ACC-7D0A-4C89-BBCD-B78F0E63813E}">
   <dimension ref="B2:V1028"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5555,13 +5770,13 @@
       <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="32" t="s">
         <v>55</v>
       </c>
       <c r="M4" s="29" t="s">
@@ -5604,14 +5819,14 @@
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="20"/>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="31">
         <f>_xlfn.XLOOKUP($H5,音階!$I$7:$I$19,音階!$J$7:$J$19)</f>
         <v>1046.5022612023945</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="31">
         <f>ROUND(I5*$D$5/$D$7,0)</f>
         <v>23</v>
       </c>
@@ -5958,14 +6173,14 @@
       </c>
     </row>
     <row r="12" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="30">
         <f>_xlfn.XLOOKUP($H12,音階!$I$7:$I$19,音階!$J$7:$J$19)</f>
         <v>2093.004522404789</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="30">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
